--- a/xlsx/Web 2.0_intext.xlsx
+++ b/xlsx/Web 2.0_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
   <si>
     <t>Web 2.0</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>機器翻譯</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Web 2.0</t>
+    <t>机器翻译</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Web 2.0</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E7%AD%BE%E4%BA%91</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E5%8A%9B%E6%BF%80%E7%9B%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>腦力激盪法</t>
+    <t>脑力激荡法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%A7%86%C2%B7%E4%BC%AF%E7%BA%B3%E6%96%AF-%E6%9D%8E</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%AE%B9%E7%AE%A1%E7%90%86%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>內容管理系統</t>
+    <t>内容管理系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E5%BA%93</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E7%95%8C%E8%B3%AA%E9%87%8F</t>
   </si>
   <si>
-    <t>臨界質量</t>
+    <t>临界质量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/O%27Reilly</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E7%BE%A9%E7%B6%B2</t>
   </si>
   <si>
-    <t>語義網</t>
+    <t>语义网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E7%9C%BE%E5%88%86%E9%A1%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>分眾分類法</t>
+    <t>分众分类法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/FOAF</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%AA%8C</t>
   </si>
   <si>
-    <t>網誌</t>
+    <t>网志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%8C%96%E7%BD%91%E7%BB%9C</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%97%E6%B5%AA</t>
@@ -473,9 +473,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E5%BF%97</t>
   </si>
   <si>
-    <t>网志</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/RSS</t>
   </si>
   <si>
@@ -503,19 +500,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E6%93%9A%E5%BA%AB</t>
   </si>
   <si>
-    <t>數據庫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>瀏覽器</t>
+    <t>浏览器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD</t>
@@ -527,15 +521,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>虛擬世界</t>
+    <t>虚拟世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%A7%86%C2%B7%E4%BC%AF%E7%B4%8D%E6%96%AF-%E6%9D%8E</t>
   </si>
   <si>
-    <t>蒂姆·伯納斯-李</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/SVG</t>
   </si>
   <si>
@@ -551,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E8%87%B4%E9%81%A0</t>
   </si>
   <si>
-    <t>楊致遠</t>
+    <t>杨致远</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Netflix</t>
@@ -617,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/Web%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>Web服務</t>
+    <t>Web服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%B8%83%E5%BC%8F%E8%AE%A1%E7%AE%97</t>
@@ -689,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>維基</t>
+    <t>维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -713,9 +704,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E4%B9%89%E7%BD%91</t>
   </si>
   <si>
-    <t>语义网</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86</t>
   </si>
   <si>
@@ -761,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%B5%E9%80%A3%E8%B3%87%E6%96%99</t>
   </si>
   <si>
-    <t>鍵連資料</t>
+    <t>键连资料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semantic_wiki</t>
@@ -863,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9B%B8%E9%A4%A82.0</t>
   </si>
   <si>
-    <t>圖書館2.0</t>
+    <t>图书馆2.0</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%95%B0%E6%8D%AE</t>
@@ -875,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E7%85%A7</t>
   </si>
   <si>
-    <t>參照</t>
+    <t>参照</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E7%B4%A2%E5%BC%95%E6%93%8E%E4%BC%98%E5%8C%96</t>
@@ -905,9 +893,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E4%BC%97%E5%88%86%E7%B1%BB%E6%B3%95</t>
   </si>
   <si>
-    <t>分众分类法</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/James_Hendler</t>
   </si>
   <si>
@@ -953,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E8%B3%87%E6%BA%90%E6%A8%99%E8%AD%98%E7%AC%A6</t>
   </si>
   <si>
-    <t>統一資源標識符</t>
+    <t>统一资源标识符</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Notation_3</t>
@@ -3663,7 +3648,7 @@
         <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3689,10 +3674,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -3718,10 +3703,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3747,10 +3732,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>9</v>
@@ -3776,10 +3761,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3805,10 +3790,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -3834,10 +3819,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="G86" t="n">
         <v>6</v>
@@ -3863,10 +3848,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -3892,10 +3877,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -3921,10 +3906,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3950,10 +3935,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3979,10 +3964,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4008,10 +3993,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4037,10 +4022,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4066,10 +4051,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4095,10 +4080,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4124,10 +4109,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G96" t="n">
         <v>12</v>
@@ -4153,10 +4138,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4182,10 +4167,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4211,10 +4196,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4240,10 +4225,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4269,10 +4254,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4298,10 +4283,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4356,10 +4341,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4385,10 +4370,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4414,10 +4399,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4443,10 +4428,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4472,10 +4457,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4501,10 +4486,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4530,10 +4515,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4559,10 +4544,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4588,10 +4573,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>156</v>
+      </c>
+      <c r="F112" t="s">
         <v>157</v>
-      </c>
-      <c r="F112" t="s">
-        <v>158</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4617,10 +4602,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F113" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4646,10 +4631,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4675,10 +4660,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F115" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4704,10 +4689,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4733,10 +4718,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4762,10 +4747,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4791,10 +4776,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F119" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4820,10 +4805,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4849,10 +4834,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -4878,10 +4863,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4907,10 +4892,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F123" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4936,10 +4921,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F124" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="G124" t="n">
         <v>6</v>
@@ -4965,10 +4950,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F125" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G125" t="n">
         <v>6</v>
@@ -4994,10 +4979,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5023,10 +5008,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5052,10 +5037,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5081,10 +5066,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G129" t="n">
         <v>5</v>
@@ -5110,10 +5095,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5139,10 +5124,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5168,10 +5153,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5197,10 +5182,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5226,10 +5211,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5255,10 +5240,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5284,10 +5269,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5313,10 +5298,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5342,10 +5327,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5371,10 +5356,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5400,10 +5385,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5429,10 +5414,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5458,10 +5443,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5487,10 +5472,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5516,10 +5501,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5545,10 +5530,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5574,10 +5559,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5603,10 +5588,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5632,10 +5617,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5661,10 +5646,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5690,10 +5675,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5719,10 +5704,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -5748,10 +5733,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5777,10 +5762,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5806,10 +5791,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5835,10 +5820,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5864,10 +5849,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5893,10 +5878,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -5922,10 +5907,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5951,10 +5936,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5980,10 +5965,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6009,10 +5994,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6038,10 +6023,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6067,10 +6052,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6096,10 +6081,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6125,10 +6110,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>156</v>
+      </c>
+      <c r="F165" t="s">
         <v>157</v>
-      </c>
-      <c r="F165" t="s">
-        <v>158</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6154,10 +6139,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6183,10 +6168,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6212,10 +6197,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6241,10 +6226,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6270,10 +6255,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6299,10 +6284,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6328,10 +6313,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6357,10 +6342,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
